--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6920"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="daysofweek_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
   <si>
     <t>code</t>
   </si>
@@ -47,100 +47,124 @@
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
     <t>SUN</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>रवि</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>मंगल</t>
+  </si>
+  <si>
+    <t>बुध</t>
+  </si>
+  <si>
+    <t>इकट्ठा करना</t>
+  </si>
+  <si>
+    <t>शुक्र</t>
+  </si>
+  <si>
+    <t>बैठा</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MIÉ</t>
+  </si>
+  <si>
+    <t>JUE</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>Sáb</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>JEU</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
     <t>MON</t>
   </si>
   <si>
-    <t>TUE</t>
-  </si>
-  <si>
-    <t>WED</t>
-  </si>
-  <si>
-    <t>THU</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>रवि</t>
-  </si>
-  <si>
-    <t>hin</t>
+    <t>masterdata-220005</t>
   </si>
   <si>
     <t>सोमवार</t>
   </si>
   <si>
-    <t>मंगल</t>
-  </si>
-  <si>
-    <t>बुध</t>
-  </si>
-  <si>
-    <t>इकट्ठा करना</t>
-  </si>
-  <si>
-    <t>शुक्र</t>
-  </si>
-  <si>
-    <t>बैठा</t>
-  </si>
-  <si>
-    <t>DOM</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>LUN</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>MIÉ</t>
-  </si>
-  <si>
-    <t>JUE</t>
-  </si>
-  <si>
-    <t>VIE</t>
-  </si>
-  <si>
-    <t>Sáb</t>
-  </si>
-  <si>
-    <t>DIM</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>JEU</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>SAM</t>
   </si>
 </sst>
 </file>
@@ -153,25 +177,13 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -638,164 +650,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1330,18 +1320,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="4" max="4" width="17.2727272727273" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,593 +1347,859 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="b">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="G2"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45663.2521686467</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
         <v>102</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5">
-        <v>101</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="1">
+        <v>45663.2521686467</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
         <v>102</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5">
-        <v>103</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5">
-        <v>104</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5">
-        <v>105</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5">
-        <v>106</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5">
-        <v>107</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="6">
-        <v>7</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5">
-        <v>101</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45663.2521686467</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
         <v>102</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5">
-        <v>103</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5">
-        <v>104</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="6">
-        <v>4</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5">
-        <v>105</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="6">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5">
-        <v>106</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5">
-        <v>107</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6">
-        <v>7</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>25</v>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45526.60499971</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45663.2521686467</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
